--- a/data/trans_orig/P16B18-Nacimiento-trans_orig.xlsx
+++ b/data/trans_orig/P16B18-Nacimiento-trans_orig.xlsx
@@ -539,7 +539,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de anticonceptivos recetados en 2007 (tasa de respuesta: 100,0%)</t>
+          <t>Mujeres menores de 55 años según si los anticonceptivos consumidos fueron recetados por el médico en 2007 (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -912,7 +912,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de anticonceptivos recetados en 2012 (tasa de respuesta: 97,24%)</t>
+          <t>Mujeres menores de 55 años según si los anticonceptivos consumidos fueron recetados por el médico en 2012 (tasa de respuesta: 97,24%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1285,7 +1285,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de anticonceptivos recetados en 2016 (tasa de respuesta: 98,68%)</t>
+          <t>Mujeres menores de 55 años según si los anticonceptivos consumidos fueron recetados por el médico en 2016 (tasa de respuesta: 98,68%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
